--- a/文件版本.xlsx
+++ b/文件版本.xlsx
@@ -23,12 +23,66 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>git版本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>走.ahk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>959a113b56fc36afdf384ca5141764e1500cdadd</t>
+  </si>
+  <si>
+    <t>修订记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZZR_LOL_0.1.0_2019.11.30</t>
+  </si>
+  <si>
+    <t>增加版本了记录文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02a0f0dbd243f08388f63379fa68cc5c684c0453</t>
+  </si>
+  <si>
+    <t>修改配置参数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件hash值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git hash值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>45b7f175d93c49f723dd9760c4cb6716b4eb4382</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -42,20 +96,73 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -64,8 +171,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -348,13 +473,286 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <cols>
+    <col min="1" max="1" width="26.875" customWidth="1"/>
+    <col min="2" max="2" width="44.5" customWidth="1"/>
+    <col min="3" max="3" width="42" customWidth="1"/>
+    <col min="4" max="4" width="33.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="104.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>